--- a/data/excel_doc/wkfj_id_lims.xlsx
+++ b/data/excel_doc/wkfj_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230925001D001</t>
+          <t>GSD230926056D001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>239Q0001</t>
+          <t>239R0056</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230925001D002</t>
+          <t>GSD230926056D002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>239Q0001</t>
+          <t>239R0056</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230925002D001</t>
+          <t>GSD230926057D001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>239Q0002</t>
+          <t>239R0057</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230925003D001</t>
+          <t>GSD230926058D001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>239Q0003</t>
+          <t>239R0058</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,19 +527,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD230925004D001</t>
+          <t>GSD230926059D001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>239Q0004</t>
+          <t>239R0059</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -549,19 +549,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD230925005D001</t>
+          <t>GSD230926060D001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>239Q0005</t>
+          <t>239R0060</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -571,19 +571,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD230925006D001</t>
+          <t>GSD230926061D001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>239Q0006</t>
+          <t>239R0061</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -593,19 +593,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD230925007D001</t>
+          <t>GSD230926062D001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>239Q0007</t>
+          <t>239R0062</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -615,19 +615,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD230925008D001</t>
+          <t>GSD230926063D001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>239Q0008</t>
+          <t>239R0063</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD230925009D001</t>
+          <t>GSD230926064D001</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>239Q0009</t>
+          <t>239R0064</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -659,19 +659,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GSD230925010D001</t>
+          <t>GSD230926065D001</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>239Q0010</t>
+          <t>239R0065</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -681,19 +681,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSD230925011D001</t>
+          <t>GSD230926066D001</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>239Q0011</t>
+          <t>239R0066</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -703,19 +703,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSD230925012D001</t>
+          <t>GSD230926067D001</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>239Q0012</t>
+          <t>239R0067</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -725,19 +725,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSD230925013D001</t>
+          <t>GSD230926068D001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>239Q0013</t>
+          <t>239R0068</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -747,19 +747,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GSD230925014D001</t>
+          <t>GSD230926069D001</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>239Q0014</t>
+          <t>239R0069</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -769,19 +769,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GSD230925015D001</t>
+          <t>GSD230926070D001</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>239Q0015</t>
+          <t>239R0070</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -791,19 +791,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GSD230925016D001</t>
+          <t>GSD230926071D001</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>239Q0016</t>
+          <t>239R0071</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -813,19 +813,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GSD230925017D001</t>
+          <t>GSD230926072D001</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>239Q0017</t>
+          <t>239R0072</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -835,19 +835,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GSD230925018D001</t>
+          <t>GSD230926073D001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>239Q0018</t>
+          <t>239R0073</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -857,19 +857,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GSD230925019D001</t>
+          <t>GSD230926074D001</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>239Q0019</t>
+          <t>239R0074</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -879,19 +879,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GSD230925020D001</t>
+          <t>GSD230926075D001</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>239Q0020</t>
+          <t>239R0075</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -901,19 +901,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GSD230925031D001</t>
+          <t>GSD230926086D001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>239Q0031</t>
+          <t>239R0086</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -923,19 +923,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GSD230925032D001</t>
+          <t>GSD230926087D001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>239Q0032</t>
+          <t>239R0087</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -945,19 +945,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GSD230925033D001</t>
+          <t>GSD230926088D001</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>239Q0033</t>
+          <t>239R0088</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -967,19 +967,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GSD230925034D001</t>
+          <t>GSD230926089D001</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>239Q0034</t>
+          <t>239R0089</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GSD230925035D001</t>
+          <t>GSD230926090D001</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>239Q0035</t>
+          <t>239R0090</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GSD230925036D001</t>
+          <t>GSD230926091D001</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>239Q0036</t>
+          <t>239R0091</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>WKGJ2023092500001</t>
+          <t>WKGJ2023092600002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkfj_id_lims.xlsx
+++ b/data/excel_doc/wkfj_id_lims.xlsx
@@ -1,95 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\迪飞LIMS脚本\DFei_LIMS\data\excel_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF04B62-05A1-4A6C-BD87-543067453474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>lims号</t>
-  </si>
-  <si>
-    <t>实验室号</t>
-  </si>
-  <si>
-    <t>当前节点</t>
-  </si>
-  <si>
-    <t>任务单号</t>
-  </si>
-  <si>
-    <t>24190032</t>
-  </si>
-  <si>
-    <t>pooling</t>
-  </si>
-  <si>
-    <t>WKGJD2024010900005</t>
-  </si>
-  <si>
-    <t>24190033</t>
-  </si>
-  <si>
-    <t>WKGJD2024011000001</t>
-  </si>
-  <si>
-    <t>24190034</t>
-  </si>
-  <si>
-    <t>GSD240109013D001</t>
-  </si>
-  <si>
-    <t>GSD240109012D001</t>
-  </si>
-  <si>
-    <t>GSD240109011D001</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF606266"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -107,23 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,76 +408,636 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="32.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lims号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>实验室号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>当前节点</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>任务单号</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GSD240116005D001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>241F0008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GSD240116005D002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>241F0008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GSD240116006D001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>241F0009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GSD240116007D001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>241F0010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GSD240116008D001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>241F0011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GSD240116009D001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>241F0012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GSD240116010D001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>241F0013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GSD240116011D001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>241F0014</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GSD240116012D001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>241F0015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GSD240116013D001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>241F0016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GSD240116014D001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>241F0017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GSD240116015D001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>241F0018</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GSD240116016D001</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>241F0019</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GSD240116017D001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>241F0020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GSD240116018D001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>241F0021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GSD240116019D001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>241F0022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GSD240116020D001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>241F0023</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GSD240116021D001</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>241F0024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GSD240116022D001</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>241F0025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GSD240116023D001</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>241F0026</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GSD240116024D001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>241F0027</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GSD240116035D001</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>241F0038</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GSD240116036D001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>241F0039</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GSD240116037D001</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>241F0040</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GSD240116038D001</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>241F0041</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GSD240116039D001</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>241F0042</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GSD240116041D001</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>241F0043</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>WKGJD2024011600003</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/wkfj_id_lims.xlsx
+++ b/data/excel_doc/wkfj_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,72 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GSD231213002D001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>23BC0002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>WKGJD2024011700011</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GSD231213003D001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>23BC0003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>WKGJD2024011700011</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GSD231213005D001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23BC0005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>WKGJD2024011700011</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/wkfj_id_lims.xlsx
+++ b/data/excel_doc/wkfj_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD231213002D001</t>
+          <t>GSD240130064D001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23BC0002</t>
+          <t>241V0062</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>WKGJD2024011700011</t>
+          <t>WKGJD2024013000003</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD231213003D001</t>
+          <t>GSD240130064D002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23BC0003</t>
+          <t>241V0062</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>WKGJD2024011700011</t>
+          <t>WKGJD2024013000003</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD231213005D001</t>
+          <t>GSD240130065D001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23BC0005</t>
+          <t>241V0063</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,7 +505,293 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>WKGJD2024011700011</t>
+          <t>WKGJD2024013000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GSD240130066D001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>241V0064</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>WKGJD2024013000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GSD240130067D001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>241V0065</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>WKGJD2024013000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GSD240130068D001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>241V0066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>WKGJD2024013000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GSD240130069D001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>241V0067</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>WKGJD2024013000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GSD240130071D001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>241V0069</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>WKGJD2024013000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GSD240130072D001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>241V0070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>WKGJD2024013000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GSD240130073D001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>241V0071</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>WKGJD2024013000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GSD240130079D001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>241V0077</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>WKGJD2024013000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GSD240130080D001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>241V0078</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>WKGJD2024013000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GSD240130081D001</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>241V0079</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>WKGJD2024013000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GSD240130082D001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>241V0080</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>WKGJD2024013000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GSD240130083D001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>241V0081</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>WKGJD2024013000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GSD240130084D001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>241V0082</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>pooling</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>WKGJD2024013000003</t>
         </is>
       </c>
     </row>
